--- a/ExportedFolder/3_1-1.xlsx
+++ b/ExportedFolder/3_1-1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <x:si>
     <x:t>Vendor Address</x:t>
   </x:si>
@@ -55,31 +55,40 @@
     <x:t>Items - Confidence</x:t>
   </x:si>
   <x:si>
-    <x:t>100 Shipping St. Apt 200 Pleasantville, NC 12345</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
+    <x:t>Marty McFly 100 Shipping St. Apt 200 Pleasantville, NC 12345</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9798304</x:t>
   </x:si>
   <x:si>
     <x:t>2018-04-11</x:t>
   </x:si>
   <x:si>
-    <x:t>#000009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$685.35</x:t>
+    <x:t>0.990562</x:t>
+  </x:si>
+  <x:si>
+    <x:t>000009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9453589</x:t>
+  </x:si>
+  <x:si>
+    <x:t>685.35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.952585</x:t>
   </x:si>
   <x:si>
     <x:t>table</x:t>
   </x:si>
   <x:si>
+    <x:t>0.8904026</x:t>
+  </x:si>
+  <x:si>
     <x:t>Key,Value
-"Address Line 1","100 Shipping St Apt 200 NC"
-"Address Line 2",""
-"Address Line 3",""
+"Address Line 1","Marty McFly 100 Shipping St Apt 200 NC"
 "City","Pleasantville"
 "Country","United States"
-"State / County / Province",""
 "Zip Postal Code","12345"</x:t>
   </x:si>
   <x:si>
@@ -110,31 +119,67 @@
     <x:t>Professional Planl 04/11/2018 05/11/2018</x:t>
   </x:si>
   <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9391056</x:t>
+  </x:si>
+  <x:si>
     <x:t>99.00</x:t>
   </x:si>
   <x:si>
+    <x:t>0.9865433</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9887193</x:t>
+  </x:si>
+  <x:si>
     <x:t>Small Instance (Hourly)1</x:t>
   </x:si>
   <x:si>
+    <x:t>0.9751961</x:t>
+  </x:si>
+  <x:si>
     <x:t>764</x:t>
   </x:si>
   <x:si>
+    <x:t>0.9807742</x:t>
+  </x:si>
+  <x:si>
     <x:t>0.25</x:t>
   </x:si>
   <x:si>
+    <x:t>0.9956559</x:t>
+  </x:si>
+  <x:si>
     <x:t>191.00</x:t>
   </x:si>
   <x:si>
+    <x:t>0.9938253</x:t>
+  </x:si>
+  <x:si>
     <x:t>Large Instance (Hourly)7</x:t>
   </x:si>
   <x:si>
+    <x:t>0.9567347</x:t>
+  </x:si>
+  <x:si>
     <x:t>943</x:t>
   </x:si>
   <x:si>
+    <x:t>0.9542701</x:t>
+  </x:si>
+  <x:si>
     <x:t>0.50</x:t>
   </x:si>
   <x:si>
+    <x:t>0.9836574</x:t>
+  </x:si>
+  <x:si>
     <x:t>471.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.9755971</x:t>
   </x:si>
   <x:si>
     <x:t>1.00</x:t>
@@ -189,7 +234,31 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="12">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -562,25 +631,25 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -643,7 +712,7 @@
     </x:row>
     <x:row r="2" spans="1:12">
       <x:c r="C2" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>13</x:v>
@@ -652,25 +721,25 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -695,106 +764,106 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H1" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -819,106 +888,106 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H1" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
